--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EBC6A4-5180-6741-9C1C-315443A1781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A26EE-6BD1-4FAC-A392-D0B683D4C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="28640" windowHeight="15540" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t>RequirementID</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>Trevor</t>
+  </si>
+  <si>
+    <t>Create Shopping Cart</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Edit Shopping Cart</t>
+  </si>
+  <si>
+    <t>Delete Shopping Cart</t>
+  </si>
+  <si>
+    <t>Display Shopping Carts</t>
+  </si>
+  <si>
+    <t>Sign Up as a New User</t>
+  </si>
+  <si>
+    <t>Login as an Existing User</t>
+  </si>
+  <si>
+    <t>Display Recipes&amp;Carts on Profile Page</t>
+  </si>
+  <si>
+    <t>Persistent Data between Logins</t>
   </si>
 </sst>
 </file>
@@ -498,25 +528,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A08D0-F8D4-45BB-AA0C-27F01BE068C9}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -562,7 +592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -582,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -602,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -622,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -642,7 +672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -662,7 +692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -682,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -702,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -720,6 +750,214 @@
       </c>
       <c r="I11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -736,20 +974,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A26EE-6BD1-4FAC-A392-D0B683D4C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFADF2-7C29-F246-82BB-00DA0B7AFD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="14060" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>RequirementID</t>
   </si>
@@ -531,22 +531,22 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,14 +572,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
@@ -592,14 +598,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
@@ -612,14 +624,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
@@ -632,14 +650,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
@@ -652,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -672,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -692,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -712,27 +736,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -752,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -778,7 +808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -804,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -830,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -856,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -882,7 +912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -908,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -934,7 +964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -974,20 +1004,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFADF2-7C29-F246-82BB-00DA0B7AFD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A52C6-FDD5-784C-B3A1-BAE9F9E48AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="14060" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>RequirementID</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Persistent Data between Logins</t>
+  </si>
+  <si>
+    <t>Recipe Unit Conversion</t>
+  </si>
+  <si>
+    <t>Braden/Trevor</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A08D0-F8D4-45BB-AA0C-27F01BE068C9}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,7 +689,13 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
@@ -988,6 +1000,26 @@
       </c>
       <c r="I19" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A52C6-FDD5-784C-B3A1-BAE9F9E48AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA2ABD-88A1-471A-8FA5-400BBB5C7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="14060" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
   <si>
     <t>RequirementID</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Login as an Existing User</t>
   </si>
   <si>
-    <t>Display Recipes&amp;Carts on Profile Page</t>
-  </si>
-  <si>
     <t>Persistent Data between Logins</t>
   </si>
   <si>
@@ -154,6 +151,21 @@
   </si>
   <si>
     <t>Braden/Trevor</t>
+  </si>
+  <si>
+    <t>Display Recipes on Profile Page</t>
+  </si>
+  <si>
+    <t>Display Carts on profile page</t>
+  </si>
+  <si>
+    <t>Not critical</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Log out as an existing user</t>
   </si>
 </sst>
 </file>
@@ -534,25 +546,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A08D0-F8D4-45BB-AA0C-27F01BE068C9}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -604,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -630,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -656,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -682,7 +694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -708,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -728,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -748,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -774,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -794,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -820,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -846,7 +858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -872,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -898,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -924,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -950,12 +962,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -976,12 +988,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1002,15 +1014,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1020,6 +1032,58 @@
       </c>
       <c r="I20" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1030,26 +1094,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5735B61-D181-41DA-AE08-963B951E5D3D}">
-  <dimension ref="B2:J2"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,6 +1140,180 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA2ABD-88A1-471A-8FA5-400BBB5C7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC8181-8E75-7140-9BA5-D444453C35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="57">
   <si>
     <t>RequirementID</t>
   </si>
@@ -166,6 +166,48 @@
   </si>
   <si>
     <t>Log out as an existing user</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Sign Up As New User</t>
+  </si>
+  <si>
+    <t>Login As Existing User</t>
+  </si>
+  <si>
+    <t>Persistent Data Between Logins</t>
+  </si>
+  <si>
+    <t>Display Carts on Profile Page</t>
+  </si>
+  <si>
+    <t>Logout Existing User</t>
+  </si>
+  <si>
+    <t>Create Pantry Entry</t>
+  </si>
+  <si>
+    <t>Display Pantry Entry</t>
+  </si>
+  <si>
+    <t>Delete Pantry Entry</t>
+  </si>
+  <si>
+    <t>Site Navigation</t>
+  </si>
+  <si>
+    <t>Braden/Joseph/Trevor</t>
+  </si>
+  <si>
+    <t>Braden/Jospeh/Trevor</t>
+  </si>
+  <si>
+    <t>Braden</t>
   </si>
 </sst>
 </file>
@@ -546,25 +588,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A08D0-F8D4-45BB-AA0C-27F01BE068C9}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -616,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -642,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -668,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -694,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -720,15 +762,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" t="s">
         <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -740,15 +788,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" t="s">
         <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -760,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -786,15 +840,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" t="s">
         <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -806,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -832,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -858,7 +918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -884,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -910,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -936,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -962,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -988,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -1014,16 +1074,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" t="s">
         <v>37</v>
       </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -1060,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -1083,6 +1149,98 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1094,26 +1252,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5735B61-D181-41DA-AE08-963B951E5D3D}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1171,7 +1329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1200,7 +1358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1229,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1258,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1287,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1314,6 +1472,394 @@
       </c>
       <c r="J8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC8181-8E75-7140-9BA5-D444453C35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0C54E-C405-4F8F-85C0-860BF87033E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -594,19 +594,19 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -788,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -892,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -918,7 +918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -944,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -970,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -1172,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -1183,10 +1183,10 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -1198,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -1218,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -1258,20 +1258,20 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\josephsluterbeck\CEG4110_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevor/Desktop/CEG4110/CEG4110_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0C54E-C405-4F8F-85C0-860BF87033E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB311C44-8B06-CE49-9B60-7285173DBC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" activeTab="1" xr2:uid="{037B2FE2-6C72-4D73-B057-C3823F9830A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
   <si>
     <t>RequirementID</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Braden</t>
+  </si>
+  <si>
+    <t>Edit pantry Entry</t>
+  </si>
+  <si>
+    <t>Edit Pantry Entry</t>
   </si>
 </sst>
 </file>
@@ -588,25 +594,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A08D0-F8D4-45BB-AA0C-27F01BE068C9}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -658,7 +664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -684,7 +690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -710,7 +716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -736,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -762,7 +768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -788,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -814,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -840,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -866,7 +872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -892,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -918,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -944,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -970,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -1152,16 +1158,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
       </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" t="s">
         <v>56</v>
       </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -1198,16 +1210,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" t="s">
         <v>56</v>
       </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -1241,6 +1259,32 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1252,26 +1296,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5735B61-D181-41DA-AE08-963B951E5D3D}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1329,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1358,7 +1402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1387,7 +1431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1416,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1445,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1474,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1503,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1532,7 +1576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1561,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1590,7 +1634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1619,7 +1663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1648,7 +1692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1677,7 +1721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1706,7 +1750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1735,7 +1779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1764,7 +1808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1793,13 +1837,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
@@ -1809,11 +1856,17 @@
       <c r="G20">
         <v>21</v>
       </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1842,13 +1895,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
@@ -1858,7 +1914,42 @@
       <c r="G22">
         <v>23</v>
       </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
       <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
         <v>56</v>
       </c>
     </row>
